--- a/Code/Results/Cases/Case_0_119/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_119/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.978015667886867</v>
+        <v>3.213347429774682</v>
       </c>
       <c r="D2">
-        <v>3.172884932173566</v>
+        <v>4.215992714421155</v>
       </c>
       <c r="E2">
-        <v>30.125788157824</v>
+        <v>16.51423181817644</v>
       </c>
       <c r="F2">
-        <v>20.59615906077038</v>
+        <v>23.24235537693069</v>
       </c>
       <c r="G2">
-        <v>28.23385155009981</v>
+        <v>27.43169869525295</v>
       </c>
       <c r="H2">
-        <v>8.729342389909004</v>
+        <v>13.57650136409413</v>
       </c>
       <c r="I2">
-        <v>15.26244452081476</v>
+        <v>19.31287144400861</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>25.67399632508079</v>
+        <v>15.9273869945082</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.789231697753827</v>
+        <v>3.132491027746396</v>
       </c>
       <c r="D3">
-        <v>3.172046134024324</v>
+        <v>4.218149613489993</v>
       </c>
       <c r="E3">
-        <v>27.88160910844847</v>
+        <v>15.57347455010789</v>
       </c>
       <c r="F3">
-        <v>19.6829033727774</v>
+        <v>23.23689536000734</v>
       </c>
       <c r="G3">
-        <v>26.68118658965317</v>
+        <v>27.35017530394033</v>
       </c>
       <c r="H3">
-        <v>8.661475233185083</v>
+        <v>13.64743728563969</v>
       </c>
       <c r="I3">
-        <v>14.74718309695013</v>
+        <v>19.3596527320048</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>23.98324571812245</v>
+        <v>15.17854272015819</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.668676066663944</v>
+        <v>3.081461755795277</v>
       </c>
       <c r="D4">
-        <v>3.173272469946129</v>
+        <v>4.220022782119442</v>
       </c>
       <c r="E4">
-        <v>26.44504748259148</v>
+        <v>14.97132330687864</v>
       </c>
       <c r="F4">
-        <v>19.14852421025411</v>
+        <v>23.24580141741454</v>
       </c>
       <c r="G4">
-        <v>25.76541905775028</v>
+        <v>27.319776176709</v>
       </c>
       <c r="H4">
-        <v>8.637318749918077</v>
+        <v>13.6955607829372</v>
       </c>
       <c r="I4">
-        <v>14.45688388412745</v>
+        <v>19.39733396430611</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22.88955497257095</v>
+        <v>14.70038695519085</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.618411568085945</v>
+        <v>3.060340063165704</v>
       </c>
       <c r="D5">
-        <v>3.174177798299219</v>
+        <v>4.220924455133294</v>
       </c>
       <c r="E5">
-        <v>25.84439631182806</v>
+        <v>14.72004496828054</v>
       </c>
       <c r="F5">
-        <v>18.93750804306071</v>
+        <v>23.25249209753605</v>
       </c>
       <c r="G5">
-        <v>25.40204602069001</v>
+        <v>27.3123049493227</v>
       </c>
       <c r="H5">
-        <v>8.631600410247541</v>
+        <v>13.71631219989344</v>
       </c>
       <c r="I5">
-        <v>14.34504251430059</v>
+        <v>19.41492119192929</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>22.42978280690375</v>
+        <v>14.50115389295924</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.609997540396587</v>
+        <v>3.056813721355881</v>
       </c>
       <c r="D6">
-        <v>3.174351751078536</v>
+        <v>4.221082542542677</v>
       </c>
       <c r="E6">
-        <v>25.74372437906294</v>
+        <v>14.6779731669933</v>
       </c>
       <c r="F6">
-        <v>18.90287993386241</v>
+        <v>23.25378728226805</v>
       </c>
       <c r="G6">
-        <v>25.34231192054264</v>
+        <v>27.31136031890212</v>
       </c>
       <c r="H6">
-        <v>8.630891854651896</v>
+        <v>13.71982661504088</v>
       </c>
       <c r="I6">
-        <v>14.32685795873193</v>
+        <v>19.41797570274231</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>22.35258449769609</v>
+        <v>14.46781445208795</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.668002740701379</v>
+        <v>3.081178195962271</v>
       </c>
       <c r="D7">
-        <v>3.173283077249226</v>
+        <v>4.220034381865823</v>
       </c>
       <c r="E7">
-        <v>26.43700922798662</v>
+        <v>14.96795795980866</v>
       </c>
       <c r="F7">
-        <v>19.14565089504039</v>
+        <v>23.24587928599649</v>
       </c>
       <c r="G7">
-        <v>25.76047825745744</v>
+        <v>27.31965555325843</v>
       </c>
       <c r="H7">
-        <v>8.637225296436464</v>
+        <v>13.69583603598905</v>
       </c>
       <c r="I7">
-        <v>14.45534955444353</v>
+        <v>19.39756214374973</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>22.88341148329145</v>
+        <v>14.69771742609175</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.913901925507387</v>
+        <v>3.185767327438537</v>
       </c>
       <c r="D8">
-        <v>3.172213635278557</v>
+        <v>4.216622703940785</v>
       </c>
       <c r="E8">
-        <v>29.36384880735047</v>
+        <v>16.19509433423082</v>
       </c>
       <c r="F8">
-        <v>20.27586555056885</v>
+        <v>23.23791708468208</v>
       </c>
       <c r="G8">
-        <v>27.69089446997634</v>
+        <v>27.39949764183821</v>
       </c>
       <c r="H8">
-        <v>8.702140567664879</v>
+        <v>13.60000700555339</v>
       </c>
       <c r="I8">
-        <v>15.0793189046127</v>
+        <v>19.32713063970326</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>25.1024825391275</v>
+        <v>15.67312753282774</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.358354937696323</v>
+        <v>3.379045795360792</v>
       </c>
       <c r="D9">
-        <v>3.18561145615846</v>
+        <v>4.214273299968677</v>
       </c>
       <c r="E9">
-        <v>34.66334531201524</v>
+        <v>18.49171446928794</v>
       </c>
       <c r="F9">
-        <v>22.69724099608132</v>
+        <v>23.32030272264496</v>
       </c>
       <c r="G9">
-        <v>31.77245631563225</v>
+        <v>27.71259653514988</v>
       </c>
       <c r="H9">
-        <v>8.980564254522834</v>
+        <v>13.44869670618302</v>
       </c>
       <c r="I9">
-        <v>16.51337580094021</v>
+        <v>19.26092822817455</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>29.01952837657619</v>
+        <v>17.4315470655445</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.661157182080973</v>
+        <v>3.51281231663974</v>
       </c>
       <c r="D10">
-        <v>3.207626192145678</v>
+        <v>4.215176406947814</v>
       </c>
       <c r="E10">
-        <v>38.32865606383145</v>
+        <v>20.14526150089166</v>
       </c>
       <c r="F10">
-        <v>24.74506419844206</v>
+        <v>23.4412642152516</v>
       </c>
       <c r="G10">
-        <v>35.11990105527551</v>
+        <v>28.03795381007397</v>
       </c>
       <c r="H10">
-        <v>9.293401524615582</v>
+        <v>13.36033852614759</v>
       </c>
       <c r="I10">
-        <v>17.90304545869623</v>
+        <v>19.25715762090507</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>31.64304766938904</v>
+        <v>18.61987276935374</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.793739663829832</v>
+        <v>3.571689271291115</v>
       </c>
       <c r="D11">
-        <v>3.221020916919233</v>
+        <v>4.216154635238645</v>
       </c>
       <c r="E11">
-        <v>39.95721772550907</v>
+        <v>20.85559858042224</v>
       </c>
       <c r="F11">
-        <v>25.80063608363554</v>
+        <v>23.50946446338764</v>
       </c>
       <c r="G11">
-        <v>36.66915569719716</v>
+        <v>28.20638831633754</v>
       </c>
       <c r="H11">
-        <v>9.462586588459645</v>
+        <v>13.32519909708403</v>
       </c>
       <c r="I11">
-        <v>18.70870485410111</v>
+        <v>19.26536446991102</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>32.78417860242993</v>
+        <v>19.13648997603784</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.843209432216035</v>
+        <v>3.593686662351963</v>
       </c>
       <c r="D12">
-        <v>3.226652952185229</v>
+        <v>4.216606339128972</v>
       </c>
       <c r="E12">
-        <v>40.56939852026866</v>
+        <v>21.11860289578829</v>
       </c>
       <c r="F12">
-        <v>26.20140949373939</v>
+        <v>23.53718119112255</v>
       </c>
       <c r="G12">
-        <v>37.26008101129645</v>
+        <v>28.2730669775783</v>
       </c>
       <c r="H12">
-        <v>9.530792286435261</v>
+        <v>13.31262810742824</v>
       </c>
       <c r="I12">
-        <v>19.01390137947315</v>
+        <v>19.26991046241186</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>33.20904880665783</v>
+        <v>19.32857757124554</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.832587815038591</v>
+        <v>3.588962597008256</v>
       </c>
       <c r="D13">
-        <v>3.225413797459145</v>
+        <v>4.216505447197892</v>
       </c>
       <c r="E13">
-        <v>40.43773662341714</v>
+        <v>21.06222582204984</v>
       </c>
       <c r="F13">
-        <v>26.11504268544196</v>
+        <v>23.53112791419763</v>
       </c>
       <c r="G13">
-        <v>37.13261574263952</v>
+        <v>28.25857850121396</v>
       </c>
       <c r="H13">
-        <v>9.515914434932984</v>
+        <v>13.31530264494207</v>
       </c>
       <c r="I13">
-        <v>18.94816131746319</v>
+        <v>19.26886727689233</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>33.11786314288726</v>
+        <v>19.28736708760336</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.797824270744783</v>
+        <v>3.573505059291872</v>
       </c>
       <c r="D14">
-        <v>3.221472585604735</v>
+        <v>4.216190170256352</v>
       </c>
       <c r="E14">
-        <v>40.00766607771383</v>
+        <v>20.87735584545545</v>
       </c>
       <c r="F14">
-        <v>25.83358464892677</v>
+        <v>23.51170687927954</v>
       </c>
       <c r="G14">
-        <v>36.71768278130317</v>
+        <v>28.21181624207031</v>
       </c>
       <c r="H14">
-        <v>9.468113362926445</v>
+        <v>13.32415008365941</v>
       </c>
       <c r="I14">
-        <v>18.73380934978218</v>
+        <v>19.26570958935127</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>32.81927655433759</v>
+        <v>19.15236467244832</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.776434994915292</v>
+        <v>3.563997660910478</v>
       </c>
       <c r="D15">
-        <v>3.21913376176865</v>
+        <v>4.216007628260096</v>
       </c>
       <c r="E15">
-        <v>39.74368133392819</v>
+        <v>20.76333929584255</v>
       </c>
       <c r="F15">
-        <v>25.66133176116305</v>
+        <v>23.50005697898374</v>
       </c>
       <c r="G15">
-        <v>36.46409590433743</v>
+        <v>28.18354876063264</v>
       </c>
       <c r="H15">
-        <v>9.439381107317764</v>
+        <v>13.32966543982447</v>
       </c>
       <c r="I15">
-        <v>18.60253715243762</v>
+        <v>19.26396301743375</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>32.63544807428211</v>
+        <v>19.06920760774544</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.652389083526703</v>
+        <v>3.508923603969015</v>
       </c>
       <c r="D16">
-        <v>3.20682487065356</v>
+        <v>4.215123867471225</v>
       </c>
       <c r="E16">
-        <v>38.22153149168248</v>
+        <v>20.09799984871979</v>
       </c>
       <c r="F16">
-        <v>24.67620754420493</v>
+        <v>23.43707206380253</v>
       </c>
       <c r="G16">
-        <v>35.0192196126647</v>
+        <v>28.0273539996483</v>
       </c>
       <c r="H16">
-        <v>9.282908996264961</v>
+        <v>13.36273743257144</v>
       </c>
       <c r="I16">
-        <v>17.85039150237628</v>
+        <v>19.25682197133859</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>31.56744164620465</v>
+        <v>18.58561965091852</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.574970794105409</v>
+        <v>3.474621333883633</v>
       </c>
       <c r="D17">
-        <v>3.200188389201011</v>
+        <v>4.21472680463684</v>
       </c>
       <c r="E17">
-        <v>37.27850319474423</v>
+        <v>19.67913740266638</v>
       </c>
       <c r="F17">
-        <v>24.07337058278915</v>
+        <v>23.40180600914114</v>
       </c>
       <c r="G17">
-        <v>34.13986518341075</v>
+        <v>27.93673977418099</v>
       </c>
       <c r="H17">
-        <v>9.19399533357109</v>
+        <v>13.38432694156394</v>
       </c>
       <c r="I17">
-        <v>17.38883702739207</v>
+        <v>19.25499130523244</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>30.89903538927593</v>
+        <v>18.28274165064099</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.529955038754497</v>
+        <v>3.45470652205318</v>
       </c>
       <c r="D18">
-        <v>3.196684372115651</v>
+        <v>4.2145518501952</v>
       </c>
       <c r="E18">
-        <v>36.73237280736339</v>
+        <v>19.43427568696255</v>
       </c>
       <c r="F18">
-        <v>23.7512235120723</v>
+        <v>23.38276245623786</v>
       </c>
       <c r="G18">
-        <v>33.63653643752008</v>
+        <v>27.88654683928992</v>
       </c>
       <c r="H18">
-        <v>9.145367568459397</v>
+        <v>13.39721996079594</v>
       </c>
       <c r="I18">
-        <v>17.16598695666273</v>
+        <v>19.25487172391352</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>30.50964259813145</v>
+        <v>18.10628386437771</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.514629782099832</v>
+        <v>3.447932379411391</v>
       </c>
       <c r="D19">
-        <v>3.195549687813095</v>
+        <v>4.214501799313131</v>
       </c>
       <c r="E19">
-        <v>36.54679308375574</v>
+        <v>19.35069138706132</v>
       </c>
       <c r="F19">
-        <v>23.65453311296178</v>
+        <v>23.37652773526221</v>
       </c>
       <c r="G19">
-        <v>33.46652929186934</v>
+        <v>27.86988423798121</v>
       </c>
       <c r="H19">
-        <v>9.129326370740985</v>
+        <v>13.40166668512386</v>
       </c>
       <c r="I19">
-        <v>17.1055504175137</v>
+        <v>19.2549911578506</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>30.37694421619807</v>
+        <v>18.04615509828275</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.58326246041976</v>
+        <v>3.478292128257864</v>
       </c>
       <c r="D20">
-        <v>3.200861950770213</v>
+        <v>4.214763545721846</v>
       </c>
       <c r="E20">
-        <v>37.37926861418553</v>
+        <v>19.72413386078688</v>
       </c>
       <c r="F20">
-        <v>24.13749390606084</v>
+        <v>23.40543176057383</v>
       </c>
       <c r="G20">
-        <v>34.23321760888094</v>
+        <v>27.94618674726458</v>
       </c>
       <c r="H20">
-        <v>9.203198285813654</v>
+        <v>13.38197944668573</v>
       </c>
       <c r="I20">
-        <v>17.43798265022198</v>
+        <v>19.25508949297089</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>30.97069812795646</v>
+        <v>18.31521720911164</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.808055069588833</v>
+        <v>3.57805350758924</v>
       </c>
       <c r="D21">
-        <v>3.222614377850894</v>
+        <v>4.216280571643483</v>
       </c>
       <c r="E21">
-        <v>40.13410154459287</v>
+        <v>20.93181878274053</v>
       </c>
       <c r="F21">
-        <v>25.91622405396349</v>
+        <v>23.51736004577589</v>
       </c>
       <c r="G21">
-        <v>36.83943840969759</v>
+        <v>28.22547323359825</v>
       </c>
       <c r="H21">
-        <v>9.482039142291534</v>
+        <v>13.32153134560464</v>
       </c>
       <c r="I21">
-        <v>18.79676394783106</v>
+        <v>19.26659796512967</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>32.90717310234076</v>
+        <v>19.192115042949</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.950685502706573</v>
+        <v>3.641510528001388</v>
       </c>
       <c r="D22">
-        <v>3.240136584912684</v>
+        <v>4.217745591662432</v>
       </c>
       <c r="E22">
-        <v>41.90882877630774</v>
+        <v>21.68624252659342</v>
       </c>
       <c r="F22">
-        <v>27.08509795192219</v>
+        <v>23.60152748223809</v>
       </c>
       <c r="G22">
-        <v>38.56794278969709</v>
+        <v>28.42485744877605</v>
       </c>
       <c r="H22">
-        <v>9.688537416412849</v>
+        <v>13.28631628805051</v>
       </c>
       <c r="I22">
-        <v>19.68565765248377</v>
+        <v>19.28250629420882</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>34.13066170934838</v>
+        <v>19.74452650928123</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.874949286825451</v>
+        <v>3.607806124551194</v>
       </c>
       <c r="D23">
-        <v>3.230454641326267</v>
+        <v>4.216920458374907</v>
       </c>
       <c r="E23">
-        <v>40.96357648343177</v>
+        <v>21.28677100276507</v>
       </c>
       <c r="F23">
-        <v>26.46052769465982</v>
+        <v>23.55560022602671</v>
       </c>
       <c r="G23">
-        <v>37.6428927055577</v>
+        <v>28.31691661388552</v>
       </c>
       <c r="H23">
-        <v>9.576012613095463</v>
+        <v>13.30471575310229</v>
       </c>
       <c r="I23">
-        <v>19.21103987473125</v>
+        <v>19.27324511317518</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>33.48141509120926</v>
+        <v>19.45161571405421</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.57951537751015</v>
+        <v>3.476633165228167</v>
       </c>
       <c r="D24">
-        <v>3.200556469133427</v>
+        <v>4.214746768922387</v>
       </c>
       <c r="E24">
-        <v>37.33372501355682</v>
+        <v>19.70380358677297</v>
       </c>
       <c r="F24">
-        <v>24.10850281852377</v>
+        <v>23.40378872247748</v>
       </c>
       <c r="G24">
-        <v>34.19100608127749</v>
+        <v>27.94190984194444</v>
       </c>
       <c r="H24">
-        <v>9.19902989633739</v>
+        <v>13.3830392516885</v>
       </c>
       <c r="I24">
-        <v>17.41576473284111</v>
+        <v>19.2550421972668</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>30.93831536253933</v>
+        <v>18.30054225635958</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.242260465603651</v>
+        <v>3.328136223498967</v>
       </c>
       <c r="D25">
-        <v>3.180070972582766</v>
+        <v>4.214445922809487</v>
       </c>
       <c r="E25">
-        <v>33.2729863504054</v>
+        <v>17.84541308699434</v>
       </c>
       <c r="F25">
-        <v>22.02066718285987</v>
+        <v>23.28743434430409</v>
       </c>
       <c r="G25">
-        <v>30.63170038209813</v>
+        <v>27.61109985452397</v>
       </c>
       <c r="H25">
-        <v>8.887373088990103</v>
+        <v>13.48565989010844</v>
       </c>
       <c r="I25">
-        <v>16.10240157429023</v>
+        <v>19.27102540784917</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>28.0053903145342</v>
+        <v>16.97345737691544</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_119/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_119/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.213347429774682</v>
+        <v>3.978015667886935</v>
       </c>
       <c r="D2">
-        <v>4.215992714421155</v>
+        <v>3.172884932173682</v>
       </c>
       <c r="E2">
-        <v>16.51423181817644</v>
+        <v>30.12578815782407</v>
       </c>
       <c r="F2">
-        <v>23.24235537693069</v>
+        <v>20.59615906077036</v>
       </c>
       <c r="G2">
-        <v>27.43169869525295</v>
+        <v>28.23385155009979</v>
       </c>
       <c r="H2">
-        <v>13.57650136409413</v>
+        <v>8.729342389908931</v>
       </c>
       <c r="I2">
-        <v>19.31287144400861</v>
+        <v>15.26244452081474</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.9273869945082</v>
+        <v>25.67399632508081</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.132491027746396</v>
+        <v>3.789231697753966</v>
       </c>
       <c r="D3">
-        <v>4.218149613489993</v>
+        <v>3.172046134024383</v>
       </c>
       <c r="E3">
-        <v>15.57347455010789</v>
+        <v>27.88160910844861</v>
       </c>
       <c r="F3">
-        <v>23.23689536000734</v>
+        <v>19.68290337277727</v>
       </c>
       <c r="G3">
-        <v>27.35017530394033</v>
+        <v>26.68118658965301</v>
       </c>
       <c r="H3">
-        <v>13.64743728563969</v>
+        <v>8.661475233185058</v>
       </c>
       <c r="I3">
-        <v>19.3596527320048</v>
+        <v>14.74718309695002</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.17854272015819</v>
+        <v>23.9832457181225</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.081461755795277</v>
+        <v>3.668676066663902</v>
       </c>
       <c r="D4">
-        <v>4.220022782119442</v>
+        <v>3.173272469946065</v>
       </c>
       <c r="E4">
-        <v>14.97132330687864</v>
+        <v>26.44504748259152</v>
       </c>
       <c r="F4">
-        <v>23.24580141741454</v>
+        <v>19.14852421025407</v>
       </c>
       <c r="G4">
-        <v>27.319776176709</v>
+        <v>25.7654190577503</v>
       </c>
       <c r="H4">
-        <v>13.6955607829372</v>
+        <v>8.637318749918009</v>
       </c>
       <c r="I4">
-        <v>19.39733396430611</v>
+        <v>14.45688388412743</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.70038695519085</v>
+        <v>22.88955497257096</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.060340063165704</v>
+        <v>3.618411568085945</v>
       </c>
       <c r="D5">
-        <v>4.220924455133294</v>
+        <v>3.174177798299453</v>
       </c>
       <c r="E5">
-        <v>14.72004496828054</v>
+        <v>25.84439631182811</v>
       </c>
       <c r="F5">
-        <v>23.25249209753605</v>
+        <v>18.93750804306061</v>
       </c>
       <c r="G5">
-        <v>27.3123049493227</v>
+        <v>25.40204602068992</v>
       </c>
       <c r="H5">
-        <v>13.71631219989344</v>
+        <v>8.631600410247417</v>
       </c>
       <c r="I5">
-        <v>19.41492119192929</v>
+        <v>14.34504251430053</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.50115389295924</v>
+        <v>22.42978280690377</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.056813721355881</v>
+        <v>3.609997540396755</v>
       </c>
       <c r="D6">
-        <v>4.221082542542677</v>
+        <v>3.174351751078588</v>
       </c>
       <c r="E6">
-        <v>14.6779731669933</v>
+        <v>25.74372437906305</v>
       </c>
       <c r="F6">
-        <v>23.25378728226805</v>
+        <v>18.90287993386229</v>
       </c>
       <c r="G6">
-        <v>27.31136031890212</v>
+        <v>25.3423119205426</v>
       </c>
       <c r="H6">
-        <v>13.71982661504088</v>
+        <v>8.63089185465186</v>
       </c>
       <c r="I6">
-        <v>19.41797570274231</v>
+        <v>14.3268579587318</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.46781445208795</v>
+        <v>22.35258449769613</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.081178195962271</v>
+        <v>3.668002740701453</v>
       </c>
       <c r="D7">
-        <v>4.220034381865823</v>
+        <v>3.17328307724945</v>
       </c>
       <c r="E7">
-        <v>14.96795795980866</v>
+        <v>26.43700922798664</v>
       </c>
       <c r="F7">
-        <v>23.24587928599649</v>
+        <v>19.14565089504041</v>
       </c>
       <c r="G7">
-        <v>27.31965555325843</v>
+        <v>25.76047825745745</v>
       </c>
       <c r="H7">
-        <v>13.69583603598905</v>
+        <v>8.637225296436522</v>
       </c>
       <c r="I7">
-        <v>19.39756214374973</v>
+        <v>14.45534955444356</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.69771742609175</v>
+        <v>22.88341148329145</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.185767327438537</v>
+        <v>3.913901925507254</v>
       </c>
       <c r="D8">
-        <v>4.216622703940785</v>
+        <v>3.172213635278548</v>
       </c>
       <c r="E8">
-        <v>16.19509433423082</v>
+        <v>29.36384880735045</v>
       </c>
       <c r="F8">
-        <v>23.23791708468208</v>
+        <v>20.27586555056877</v>
       </c>
       <c r="G8">
-        <v>27.39949764183821</v>
+        <v>27.69089446997622</v>
       </c>
       <c r="H8">
-        <v>13.60000700555339</v>
+        <v>8.702140567664818</v>
       </c>
       <c r="I8">
-        <v>19.32713063970326</v>
+        <v>15.07931890461263</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.67312753282774</v>
+        <v>25.10248253912753</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.379045795360792</v>
+        <v>4.358354937696323</v>
       </c>
       <c r="D9">
-        <v>4.214273299968677</v>
+        <v>3.185611456158543</v>
       </c>
       <c r="E9">
-        <v>18.49171446928794</v>
+        <v>34.66334531201522</v>
       </c>
       <c r="F9">
-        <v>23.32030272264496</v>
+        <v>22.6972409960813</v>
       </c>
       <c r="G9">
-        <v>27.71259653514988</v>
+        <v>31.77245631563229</v>
       </c>
       <c r="H9">
-        <v>13.44869670618302</v>
+        <v>8.980564254522839</v>
       </c>
       <c r="I9">
-        <v>19.26092822817455</v>
+        <v>16.5133758009402</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.4315470655445</v>
+        <v>29.01952837657618</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.51281231663974</v>
+        <v>4.661157182080909</v>
       </c>
       <c r="D10">
-        <v>4.215176406947814</v>
+        <v>3.207626192145702</v>
       </c>
       <c r="E10">
-        <v>20.14526150089166</v>
+        <v>38.32865606383144</v>
       </c>
       <c r="F10">
-        <v>23.4412642152516</v>
+        <v>24.74506419844208</v>
       </c>
       <c r="G10">
-        <v>28.03795381007397</v>
+        <v>35.11990105527561</v>
       </c>
       <c r="H10">
-        <v>13.36033852614759</v>
+        <v>9.293401524615559</v>
       </c>
       <c r="I10">
-        <v>19.25715762090507</v>
+        <v>17.90304545869625</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.61987276935374</v>
+        <v>31.64304766938908</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.571689271291115</v>
+        <v>4.793739663829939</v>
       </c>
       <c r="D11">
-        <v>4.216154635238645</v>
+        <v>3.221020916919266</v>
       </c>
       <c r="E11">
-        <v>20.85559858042224</v>
+        <v>39.95721772550917</v>
       </c>
       <c r="F11">
-        <v>23.50946446338764</v>
+        <v>25.80063608363566</v>
       </c>
       <c r="G11">
-        <v>28.20638831633754</v>
+        <v>36.6691556971974</v>
       </c>
       <c r="H11">
-        <v>13.32519909708403</v>
+        <v>9.462586588459624</v>
       </c>
       <c r="I11">
-        <v>19.26536446991102</v>
+        <v>18.70870485410125</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.13648997603784</v>
+        <v>32.78417860243</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.593686662351963</v>
+        <v>4.843209432216019</v>
       </c>
       <c r="D12">
-        <v>4.216606339128972</v>
+        <v>3.226652952185309</v>
       </c>
       <c r="E12">
-        <v>21.11860289578829</v>
+        <v>40.56939852026857</v>
       </c>
       <c r="F12">
-        <v>23.53718119112255</v>
+        <v>26.20140949373931</v>
       </c>
       <c r="G12">
-        <v>28.2730669775783</v>
+        <v>37.26008101129635</v>
       </c>
       <c r="H12">
-        <v>13.31262810742824</v>
+        <v>9.530792286435256</v>
       </c>
       <c r="I12">
-        <v>19.26991046241186</v>
+        <v>19.01390137947308</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.32857757124554</v>
+        <v>33.20904880665779</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.588962597008256</v>
+        <v>4.832587815038607</v>
       </c>
       <c r="D13">
-        <v>4.216505447197892</v>
+        <v>3.225413797459272</v>
       </c>
       <c r="E13">
-        <v>21.06222582204984</v>
+        <v>40.43773662341725</v>
       </c>
       <c r="F13">
-        <v>23.53112791419763</v>
+        <v>26.11504268544208</v>
       </c>
       <c r="G13">
-        <v>28.25857850121396</v>
+        <v>37.13261574263967</v>
       </c>
       <c r="H13">
-        <v>13.31530264494207</v>
+        <v>9.515914434932981</v>
       </c>
       <c r="I13">
-        <v>19.26886727689233</v>
+        <v>18.94816131746326</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.28736708760336</v>
+        <v>33.11786314288728</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.573505059291872</v>
+        <v>4.797824270744799</v>
       </c>
       <c r="D14">
-        <v>4.216190170256352</v>
+        <v>3.221472585604783</v>
       </c>
       <c r="E14">
-        <v>20.87735584545545</v>
+        <v>40.00766607771387</v>
       </c>
       <c r="F14">
-        <v>23.51170687927954</v>
+        <v>25.83358464892678</v>
       </c>
       <c r="G14">
-        <v>28.21181624207031</v>
+        <v>36.71768278130317</v>
       </c>
       <c r="H14">
-        <v>13.32415008365941</v>
+        <v>9.468113362926424</v>
       </c>
       <c r="I14">
-        <v>19.26570958935127</v>
+        <v>18.7338093497822</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.15236467244832</v>
+        <v>32.81927655433761</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.563997660910478</v>
+        <v>4.776434994915254</v>
       </c>
       <c r="D15">
-        <v>4.216007628260096</v>
+        <v>3.219133761768642</v>
       </c>
       <c r="E15">
-        <v>20.76333929584255</v>
+        <v>39.74368133392818</v>
       </c>
       <c r="F15">
-        <v>23.50005697898374</v>
+        <v>25.66133176116308</v>
       </c>
       <c r="G15">
-        <v>28.18354876063264</v>
+        <v>36.46409590433748</v>
       </c>
       <c r="H15">
-        <v>13.32966543982447</v>
+        <v>9.439381107317766</v>
       </c>
       <c r="I15">
-        <v>19.26396301743375</v>
+        <v>18.60253715243764</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.06920760774544</v>
+        <v>32.63544807428211</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.508923603969015</v>
+        <v>4.652389083526639</v>
       </c>
       <c r="D16">
-        <v>4.215123867471225</v>
+        <v>3.206824870653609</v>
       </c>
       <c r="E16">
-        <v>20.09799984871979</v>
+        <v>38.22153149168249</v>
       </c>
       <c r="F16">
-        <v>23.43707206380253</v>
+        <v>24.67620754420486</v>
       </c>
       <c r="G16">
-        <v>28.0273539996483</v>
+        <v>35.01921961266451</v>
       </c>
       <c r="H16">
-        <v>13.36273743257144</v>
+        <v>9.282908996264972</v>
       </c>
       <c r="I16">
-        <v>19.25682197133859</v>
+        <v>17.85039150237616</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.58561965091852</v>
+        <v>31.56744164620462</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.474621333883633</v>
+        <v>4.574970794105402</v>
       </c>
       <c r="D17">
-        <v>4.21472680463684</v>
+        <v>3.200188389201075</v>
       </c>
       <c r="E17">
-        <v>19.67913740266638</v>
+        <v>37.27850319474431</v>
       </c>
       <c r="F17">
-        <v>23.40180600914114</v>
+        <v>24.07337058278925</v>
       </c>
       <c r="G17">
-        <v>27.93673977418099</v>
+        <v>34.13986518341093</v>
       </c>
       <c r="H17">
-        <v>13.38432694156394</v>
+        <v>9.193995333570989</v>
       </c>
       <c r="I17">
-        <v>19.25499130523244</v>
+        <v>17.38883702739217</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.28274165064099</v>
+        <v>30.89903538927604</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.45470652205318</v>
+        <v>4.52995503875455</v>
       </c>
       <c r="D18">
-        <v>4.2145518501952</v>
+        <v>3.196684372115529</v>
       </c>
       <c r="E18">
-        <v>19.43427568696255</v>
+        <v>36.73237280736353</v>
       </c>
       <c r="F18">
-        <v>23.38276245623786</v>
+        <v>23.7512235120723</v>
       </c>
       <c r="G18">
-        <v>27.88654683928992</v>
+        <v>33.63653643752031</v>
       </c>
       <c r="H18">
-        <v>13.39721996079594</v>
+        <v>9.145367568459308</v>
       </c>
       <c r="I18">
-        <v>19.25487172391352</v>
+        <v>17.16598695666269</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.10628386437771</v>
+        <v>30.5096425981316</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.447932379411391</v>
+        <v>4.514629782099898</v>
       </c>
       <c r="D19">
-        <v>4.214501799313131</v>
+        <v>3.195549687813089</v>
       </c>
       <c r="E19">
-        <v>19.35069138706132</v>
+        <v>36.54679308375561</v>
       </c>
       <c r="F19">
-        <v>23.37652773526221</v>
+        <v>23.65453311296178</v>
       </c>
       <c r="G19">
-        <v>27.86988423798121</v>
+        <v>33.46652929186929</v>
       </c>
       <c r="H19">
-        <v>13.40166668512386</v>
+        <v>9.129326370741019</v>
       </c>
       <c r="I19">
-        <v>19.2549911578506</v>
+        <v>17.10555041751371</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.04615509828275</v>
+        <v>30.37694421619808</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.478292128257864</v>
+        <v>4.583262460419746</v>
       </c>
       <c r="D20">
-        <v>4.214763545721846</v>
+        <v>3.200861950770294</v>
       </c>
       <c r="E20">
-        <v>19.72413386078688</v>
+        <v>37.37926861418556</v>
       </c>
       <c r="F20">
-        <v>23.40543176057383</v>
+        <v>24.13749390606084</v>
       </c>
       <c r="G20">
-        <v>27.94618674726458</v>
+        <v>34.233217608881</v>
       </c>
       <c r="H20">
-        <v>13.38197944668573</v>
+        <v>9.20319828581367</v>
       </c>
       <c r="I20">
-        <v>19.25508949297089</v>
+        <v>17.437982650222</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.31521720911164</v>
+        <v>30.97069812795649</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.57805350758924</v>
+        <v>4.80805506958878</v>
       </c>
       <c r="D21">
-        <v>4.216280571643483</v>
+        <v>3.222614377850813</v>
       </c>
       <c r="E21">
-        <v>20.93181878274053</v>
+        <v>40.13410154459294</v>
       </c>
       <c r="F21">
-        <v>23.51736004577589</v>
+        <v>25.91622405396353</v>
       </c>
       <c r="G21">
-        <v>28.22547323359825</v>
+        <v>36.83943840969774</v>
       </c>
       <c r="H21">
-        <v>13.32153134560464</v>
+        <v>9.482039142291512</v>
       </c>
       <c r="I21">
-        <v>19.26659796512967</v>
+        <v>18.7967639478311</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.192115042949</v>
+        <v>32.90717310234081</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.641510528001388</v>
+        <v>4.950685502706574</v>
       </c>
       <c r="D22">
-        <v>4.217745591662432</v>
+        <v>3.240136584912737</v>
       </c>
       <c r="E22">
-        <v>21.68624252659342</v>
+        <v>41.90882877630768</v>
       </c>
       <c r="F22">
-        <v>23.60152748223809</v>
+        <v>27.08509795192217</v>
       </c>
       <c r="G22">
-        <v>28.42485744877605</v>
+        <v>38.56794278969696</v>
       </c>
       <c r="H22">
-        <v>13.28631628805051</v>
+        <v>9.688537416412849</v>
       </c>
       <c r="I22">
-        <v>19.28250629420882</v>
+        <v>19.68565765248375</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.74452650928123</v>
+        <v>34.13066170934832</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.607806124551194</v>
+        <v>4.874949286825407</v>
       </c>
       <c r="D23">
-        <v>4.216920458374907</v>
+        <v>3.230454641326347</v>
       </c>
       <c r="E23">
-        <v>21.28677100276507</v>
+        <v>40.96357648343169</v>
       </c>
       <c r="F23">
-        <v>23.55560022602671</v>
+        <v>26.46052769465972</v>
       </c>
       <c r="G23">
-        <v>28.31691661388552</v>
+        <v>37.64289270555749</v>
       </c>
       <c r="H23">
-        <v>13.30471575310229</v>
+        <v>9.576012613095486</v>
       </c>
       <c r="I23">
-        <v>19.27324511317518</v>
+        <v>19.21103987473115</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.45161571405421</v>
+        <v>33.48141509120919</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.476633165228167</v>
+        <v>4.579515377510137</v>
       </c>
       <c r="D24">
-        <v>4.214746768922387</v>
+        <v>3.200556469133395</v>
       </c>
       <c r="E24">
-        <v>19.70380358677297</v>
+        <v>37.33372501355679</v>
       </c>
       <c r="F24">
-        <v>23.40378872247748</v>
+        <v>24.10850281852372</v>
       </c>
       <c r="G24">
-        <v>27.94190984194444</v>
+        <v>34.19100608127746</v>
       </c>
       <c r="H24">
-        <v>13.3830392516885</v>
+        <v>9.199029896337384</v>
       </c>
       <c r="I24">
-        <v>19.2550421972668</v>
+        <v>17.41576473284108</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.30054225635958</v>
+        <v>30.93831536253929</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.328136223498967</v>
+        <v>4.242260465603763</v>
       </c>
       <c r="D25">
-        <v>4.214445922809487</v>
+        <v>3.180070972582816</v>
       </c>
       <c r="E25">
-        <v>17.84541308699434</v>
+        <v>33.2729863504053</v>
       </c>
       <c r="F25">
-        <v>23.28743434430409</v>
+        <v>22.02066718285984</v>
       </c>
       <c r="G25">
-        <v>27.61109985452397</v>
+        <v>30.63170038209804</v>
       </c>
       <c r="H25">
-        <v>13.48565989010844</v>
+        <v>8.887373088990149</v>
       </c>
       <c r="I25">
-        <v>19.27102540784917</v>
+        <v>16.1024015742902</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.97345737691544</v>
+        <v>28.00539031453416</v>
       </c>
       <c r="L25">
         <v>0</v>
